--- a/Treceability and data.xlsx
+++ b/Treceability and data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\ChatBot - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\ChatBot v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B03432-197F-4C8A-80A0-F6BCD66B7FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB3212-6475-4234-A7DA-009B0B1C146E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0EEF5273-99CD-4C56-8A47-27D231951DCF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{0EEF5273-99CD-4C56-8A47-27D231951DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Trace. &amp; Data" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -1456,10 +1456,19 @@
     <t>ES2223SP</t>
   </si>
   <si>
-    <t>utoma</t>
-  </si>
-  <si>
     <t>02614271E@nuevomivf.es</t>
+  </si>
+  <si>
+    <t>A77464923@nuevomivf.es</t>
+  </si>
+  <si>
+    <t>05262456X@nuevomivf.es</t>
+  </si>
+  <si>
+    <t>28802777S@nuevomivf.es</t>
+  </si>
+  <si>
+    <t>53132686H@nuevomivf.es</t>
   </si>
 </sst>
 </file>
@@ -2783,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA08581D-5FFF-49CE-9C62-8FE9698AB5EB}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3380,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50136DA-FED0-42DB-AF52-FEA3C2652047}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3509,7 +3518,10 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>256</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3521,7 +3533,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>267</v>
@@ -3537,6 +3549,9 @@
       <c r="B13" s="24" t="s">
         <v>261</v>
       </c>
+      <c r="C13" s="24" t="s">
+        <v>300</v>
+      </c>
       <c r="D13" s="17" t="s">
         <v>183</v>
       </c>
@@ -3800,7 +3815,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>183</v>
@@ -3874,8 +3889,8 @@
       <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>274</v>
+      <c r="B43" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>183</v>
@@ -3897,6 +3912,9 @@
         <v>76</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>276</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -3916,6 +3934,9 @@
       <c r="B47" s="24" t="s">
         <v>270</v>
       </c>
+      <c r="C47" s="24" t="s">
+        <v>246</v>
+      </c>
       <c r="D47" s="17" t="s">
         <v>183</v>
       </c>
@@ -3924,7 +3945,10 @@
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3935,8 +3959,8 @@
       <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>246</v>
+      <c r="B49" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>183</v>
@@ -3946,7 +3970,9 @@
       <c r="A50" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="24" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -3982,35 +4008,37 @@
     <hyperlink ref="B30" r:id="rId7" xr:uid="{E30C05C4-49A4-4D1A-8FEC-42B869BF82A3}"/>
     <hyperlink ref="B31" r:id="rId8" xr:uid="{64EB6390-E10C-4AEB-A70C-48F0D35B3505}"/>
     <hyperlink ref="B38" r:id="rId9" xr:uid="{32BAF296-6AAD-47D5-8664-5626B9315AA4}"/>
-    <hyperlink ref="B36" r:id="rId10" display="52840434G@nuevomivf.es" xr:uid="{AD0994D5-643C-4DB6-BCB3-C9BC050287CE}"/>
-    <hyperlink ref="B32" r:id="rId11" xr:uid="{C1109EED-A2BA-4250-963B-C12FA3CDFED6}"/>
-    <hyperlink ref="B33" r:id="rId12" xr:uid="{064EBF9C-F615-4BC4-B14E-F74D79D30BDA}"/>
-    <hyperlink ref="B34" r:id="rId13" xr:uid="{963A4832-2C88-4C6E-A1C5-671A90137F56}"/>
-    <hyperlink ref="B39" r:id="rId14" xr:uid="{1A402798-772C-4078-9DB4-EEFC5A5E6C7F}"/>
-    <hyperlink ref="B48" r:id="rId15" xr:uid="{F6723388-3197-4FE1-97D6-F09C9A2B7A78}"/>
-    <hyperlink ref="B47" r:id="rId16" xr:uid="{6E0360B4-6CC3-46FD-BFE1-AD5CB193EC7E}"/>
-    <hyperlink ref="B49" r:id="rId17" xr:uid="{42DC5AE0-6C1C-4430-988B-BD262DB5BD12}"/>
-    <hyperlink ref="B42" r:id="rId18" xr:uid="{D695BAB1-6808-4E3B-9F43-C238ABB96662}"/>
-    <hyperlink ref="B51" r:id="rId19" xr:uid="{C90CBB77-F378-4CA8-A6FB-AFB0AC9459E7}"/>
-    <hyperlink ref="B52" r:id="rId20" xr:uid="{D1591B8F-E701-46FB-8798-C120F5B78333}"/>
-    <hyperlink ref="B43" r:id="rId21" xr:uid="{51B5645E-EEC6-404D-B592-E69FD2F17C37}"/>
-    <hyperlink ref="B44" r:id="rId22" xr:uid="{657F2A25-54FB-4535-893E-BDFC93C9BD42}"/>
-    <hyperlink ref="B45" r:id="rId23" xr:uid="{49DF350F-0734-4D0F-A759-5A8EE842DC1D}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{0A4A41AD-1CBE-43AF-8ED1-8B72B3A53F5C}"/>
-    <hyperlink ref="B35" r:id="rId25" xr:uid="{1760BF02-D6C7-4021-ACC6-DA059AB846E2}"/>
-    <hyperlink ref="B9" r:id="rId26" xr:uid="{A9D471C0-0BBF-48AE-BD57-D50170A38D24}"/>
-    <hyperlink ref="B5" r:id="rId27" xr:uid="{44B5B9BE-740A-414A-8448-56F14A29B2DC}"/>
-    <hyperlink ref="B6" r:id="rId28" xr:uid="{A234CE59-45E8-46DD-BEC2-139180B931C3}"/>
-    <hyperlink ref="B7" r:id="rId29" xr:uid="{F6B4415F-0EB6-4C45-9FEA-4D712B25D033}"/>
-    <hyperlink ref="B8" r:id="rId30" xr:uid="{40E035DE-7F90-4A38-AF18-0EF709B6EE04}"/>
-    <hyperlink ref="C28" r:id="rId31" xr:uid="{768D99F7-0A47-4A60-A2F2-C19FA3F121ED}"/>
-    <hyperlink ref="B28" r:id="rId32" xr:uid="{2821DAEE-82D6-4575-B04C-F94E5666DAE8}"/>
-    <hyperlink ref="C38" r:id="rId33" xr:uid="{F7EEC3BC-74AE-4C55-B830-E86905A18BD8}"/>
-    <hyperlink ref="B10" r:id="rId34" xr:uid="{ED44DE73-F749-4CED-B6D7-B22325EFFC04}"/>
-    <hyperlink ref="B4" r:id="rId35" xr:uid="{138D1988-1CA0-4419-87B0-56D13378D668}"/>
+    <hyperlink ref="B32" r:id="rId10" xr:uid="{C1109EED-A2BA-4250-963B-C12FA3CDFED6}"/>
+    <hyperlink ref="B33" r:id="rId11" xr:uid="{064EBF9C-F615-4BC4-B14E-F74D79D30BDA}"/>
+    <hyperlink ref="B34" r:id="rId12" xr:uid="{963A4832-2C88-4C6E-A1C5-671A90137F56}"/>
+    <hyperlink ref="B39" r:id="rId13" xr:uid="{1A402798-772C-4078-9DB4-EEFC5A5E6C7F}"/>
+    <hyperlink ref="B47" r:id="rId14" xr:uid="{6E0360B4-6CC3-46FD-BFE1-AD5CB193EC7E}"/>
+    <hyperlink ref="C48" r:id="rId15" xr:uid="{42DC5AE0-6C1C-4430-988B-BD262DB5BD12}"/>
+    <hyperlink ref="B42" r:id="rId16" xr:uid="{D695BAB1-6808-4E3B-9F43-C238ABB96662}"/>
+    <hyperlink ref="B51" r:id="rId17" xr:uid="{C90CBB77-F378-4CA8-A6FB-AFB0AC9459E7}"/>
+    <hyperlink ref="B52" r:id="rId18" xr:uid="{D1591B8F-E701-46FB-8798-C120F5B78333}"/>
+    <hyperlink ref="B36" r:id="rId19" xr:uid="{51B5645E-EEC6-404D-B592-E69FD2F17C37}"/>
+    <hyperlink ref="B44" r:id="rId20" xr:uid="{657F2A25-54FB-4535-893E-BDFC93C9BD42}"/>
+    <hyperlink ref="C45" r:id="rId21" xr:uid="{49DF350F-0734-4D0F-A759-5A8EE842DC1D}"/>
+    <hyperlink ref="B40" r:id="rId22" xr:uid="{0A4A41AD-1CBE-43AF-8ED1-8B72B3A53F5C}"/>
+    <hyperlink ref="B35" r:id="rId23" xr:uid="{1760BF02-D6C7-4021-ACC6-DA059AB846E2}"/>
+    <hyperlink ref="B9" r:id="rId24" xr:uid="{A9D471C0-0BBF-48AE-BD57-D50170A38D24}"/>
+    <hyperlink ref="B5" r:id="rId25" xr:uid="{44B5B9BE-740A-414A-8448-56F14A29B2DC}"/>
+    <hyperlink ref="B6" r:id="rId26" xr:uid="{A234CE59-45E8-46DD-BEC2-139180B931C3}"/>
+    <hyperlink ref="B7" r:id="rId27" xr:uid="{F6B4415F-0EB6-4C45-9FEA-4D712B25D033}"/>
+    <hyperlink ref="B8" r:id="rId28" xr:uid="{40E035DE-7F90-4A38-AF18-0EF709B6EE04}"/>
+    <hyperlink ref="C28" r:id="rId29" xr:uid="{768D99F7-0A47-4A60-A2F2-C19FA3F121ED}"/>
+    <hyperlink ref="B28" r:id="rId30" xr:uid="{2821DAEE-82D6-4575-B04C-F94E5666DAE8}"/>
+    <hyperlink ref="C38" r:id="rId31" xr:uid="{F7EEC3BC-74AE-4C55-B830-E86905A18BD8}"/>
+    <hyperlink ref="B10" r:id="rId32" xr:uid="{ED44DE73-F749-4CED-B6D7-B22325EFFC04}"/>
+    <hyperlink ref="B4" r:id="rId33" xr:uid="{138D1988-1CA0-4419-87B0-56D13378D668}"/>
+    <hyperlink ref="B45" r:id="rId34" xr:uid="{12488BE9-4B03-4EAF-9148-CD14A4AEC729}"/>
+    <hyperlink ref="C13" r:id="rId35" xr:uid="{6A77DB33-B78F-4E5B-A31D-2B862D2E3768}"/>
+    <hyperlink ref="C47" r:id="rId36" xr:uid="{7C5F1BEE-6509-41BA-A1F6-5901028AFAE2}"/>
+    <hyperlink ref="B11" r:id="rId37" xr:uid="{B07C28A6-F732-4E9E-9681-0F109A17DFC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K000000C2 General</oddFooter>
   </headerFooter>
